--- a/natmiOut/OldD2/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Col5a3-Sdc3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -92,12 +98,6 @@
   </si>
   <si>
     <t>Sdc3</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.886819298104185</v>
+        <v>0.9349805</v>
       </c>
       <c r="H2">
-        <v>0.886819298104185</v>
+        <v>1.869961</v>
       </c>
       <c r="I2">
-        <v>0.02401803877947146</v>
+        <v>0.02302311302816246</v>
       </c>
       <c r="J2">
-        <v>0.02401803877947146</v>
+        <v>0.01759383914505556</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N2">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O2">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P2">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q2">
-        <v>26.21453629953941</v>
+        <v>28.07475250405975</v>
       </c>
       <c r="R2">
-        <v>26.21453629953941</v>
+        <v>112.299010016239</v>
       </c>
       <c r="S2">
-        <v>0.003243785339215541</v>
+        <v>0.003090452682478994</v>
       </c>
       <c r="T2">
-        <v>0.003243785339215541</v>
+        <v>0.001663310931998166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.886819298104185</v>
+        <v>0.9349805</v>
       </c>
       <c r="H3">
-        <v>0.886819298104185</v>
+        <v>1.869961</v>
       </c>
       <c r="I3">
-        <v>0.02401803877947146</v>
+        <v>0.02302311302816246</v>
       </c>
       <c r="J3">
-        <v>0.02401803877947146</v>
+        <v>0.01759383914505556</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N3">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O3">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P3">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q3">
-        <v>4.286951302671416</v>
+        <v>5.0110607140675</v>
       </c>
       <c r="R3">
-        <v>4.286951302671416</v>
+        <v>30.066364284405</v>
       </c>
       <c r="S3">
-        <v>0.0005304671281094081</v>
+        <v>0.0005516146945058766</v>
       </c>
       <c r="T3">
-        <v>0.0005304671281094081</v>
+        <v>0.000445326387048812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.886819298104185</v>
+        <v>0.9349805</v>
       </c>
       <c r="H4">
-        <v>0.886819298104185</v>
+        <v>1.869961</v>
       </c>
       <c r="I4">
-        <v>0.02401803877947146</v>
+        <v>0.02302311302816246</v>
       </c>
       <c r="J4">
-        <v>0.02401803877947146</v>
+        <v>0.01759383914505556</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N4">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O4">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P4">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q4">
-        <v>54.55514814663739</v>
+        <v>59.67586561883316</v>
       </c>
       <c r="R4">
-        <v>54.55514814663739</v>
+        <v>358.055193712999</v>
       </c>
       <c r="S4">
-        <v>0.006750651154562041</v>
+        <v>0.006569085122097163</v>
       </c>
       <c r="T4">
-        <v>0.006750651154562041</v>
+        <v>0.005303315833999176</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.886819298104185</v>
+        <v>0.9349805</v>
       </c>
       <c r="H5">
-        <v>0.886819298104185</v>
+        <v>1.869961</v>
       </c>
       <c r="I5">
-        <v>0.02401803877947146</v>
+        <v>0.02302311302816246</v>
       </c>
       <c r="J5">
-        <v>0.02401803877947146</v>
+        <v>0.01759383914505556</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N5">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O5">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P5">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q5">
-        <v>81.98948077695617</v>
+        <v>87.29785958148098</v>
       </c>
       <c r="R5">
-        <v>81.98948077695617</v>
+        <v>523.7871574888859</v>
       </c>
       <c r="S5">
-        <v>0.01014537402741919</v>
+        <v>0.009609698403547797</v>
       </c>
       <c r="T5">
-        <v>0.01014537402741919</v>
+        <v>0.00775804617481068</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.886819298104185</v>
+        <v>0.9349805</v>
       </c>
       <c r="H6">
-        <v>0.886819298104185</v>
+        <v>1.869961</v>
       </c>
       <c r="I6">
-        <v>0.02401803877947146</v>
+        <v>0.02302311302816246</v>
       </c>
       <c r="J6">
-        <v>0.02401803877947146</v>
+        <v>0.01759383914505556</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N6">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O6">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P6">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q6">
-        <v>21.92618158465097</v>
+        <v>23.6422525809995</v>
       </c>
       <c r="R6">
-        <v>21.92618158465097</v>
+        <v>141.853515485997</v>
       </c>
       <c r="S6">
-        <v>0.00271314455295241</v>
+        <v>0.002602525628613476</v>
       </c>
       <c r="T6">
-        <v>0.00271314455295241</v>
+        <v>0.00210105594890027</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>25</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.886819298104185</v>
+        <v>0.9349805</v>
       </c>
       <c r="H7">
-        <v>0.886819298104185</v>
+        <v>1.869961</v>
       </c>
       <c r="I7">
-        <v>0.02401803877947146</v>
+        <v>0.02302311302816246</v>
       </c>
       <c r="J7">
-        <v>0.02401803877947146</v>
+        <v>0.01759383914505556</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N7">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O7">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P7">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q7">
-        <v>5.128631385842358</v>
+        <v>5.44821598923525</v>
       </c>
       <c r="R7">
-        <v>5.128631385842358</v>
+        <v>21.792863956941</v>
       </c>
       <c r="S7">
-        <v>0.0006346165772128656</v>
+        <v>0.0005997364969191535</v>
       </c>
       <c r="T7">
-        <v>0.0006346165772128656</v>
+        <v>0.0003227838682984568</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.5033720525784</v>
+        <v>21.17233266666667</v>
       </c>
       <c r="H8">
-        <v>19.5033720525784</v>
+        <v>63.516998</v>
       </c>
       <c r="I8">
-        <v>0.5282166809976835</v>
+        <v>0.5213509886618202</v>
       </c>
       <c r="J8">
-        <v>0.5282166809976835</v>
+        <v>0.5976102420258047</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N8">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O8">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P8">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q8">
-        <v>576.5231493368719</v>
+        <v>635.7437396291003</v>
       </c>
       <c r="R8">
-        <v>576.5231493368719</v>
+        <v>3814.462437774602</v>
       </c>
       <c r="S8">
-        <v>0.07133894409454707</v>
+        <v>0.06998230688665447</v>
       </c>
       <c r="T8">
-        <v>0.07133894409454707</v>
+        <v>0.05649771152505622</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.5033720525784</v>
+        <v>21.17233266666667</v>
       </c>
       <c r="H9">
-        <v>19.5033720525784</v>
+        <v>63.516998</v>
       </c>
       <c r="I9">
-        <v>0.5282166809976835</v>
+        <v>0.5213509886618202</v>
       </c>
       <c r="J9">
-        <v>0.5282166809976835</v>
+        <v>0.5976102420258047</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N9">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O9">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P9">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q9">
-        <v>94.28076994493146</v>
+        <v>113.4738579586433</v>
       </c>
       <c r="R9">
-        <v>94.28076994493146</v>
+        <v>1021.26472162779</v>
       </c>
       <c r="S9">
-        <v>0.01166629750085243</v>
+        <v>0.01249113731879983</v>
       </c>
       <c r="T9">
-        <v>0.01166629750085243</v>
+        <v>0.01512640917940354</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>19.5033720525784</v>
+        <v>21.17233266666667</v>
       </c>
       <c r="H10">
-        <v>19.5033720525784</v>
+        <v>63.516998</v>
       </c>
       <c r="I10">
-        <v>0.5282166809976835</v>
+        <v>0.5213509886618202</v>
       </c>
       <c r="J10">
-        <v>0.5282166809976835</v>
+        <v>0.5976102420258047</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N10">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O10">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P10">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q10">
-        <v>1199.804011890594</v>
+        <v>1351.34078096092</v>
       </c>
       <c r="R10">
-        <v>1199.804011890594</v>
+        <v>12162.06702864828</v>
       </c>
       <c r="S10">
-        <v>0.1484636851566617</v>
+        <v>0.1487548195076707</v>
       </c>
       <c r="T10">
-        <v>0.1484636851566617</v>
+        <v>0.18013782170938</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>19.5033720525784</v>
+        <v>21.17233266666667</v>
       </c>
       <c r="H11">
-        <v>19.5033720525784</v>
+        <v>63.516998</v>
       </c>
       <c r="I11">
-        <v>0.5282166809976835</v>
+        <v>0.5213509886618202</v>
       </c>
       <c r="J11">
-        <v>0.5282166809976835</v>
+        <v>0.5976102420258047</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N11">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O11">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P11">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q11">
-        <v>1803.153530160143</v>
+        <v>1976.831949058905</v>
       </c>
       <c r="R11">
-        <v>1803.153530160143</v>
+        <v>17791.48754153015</v>
       </c>
       <c r="S11">
-        <v>0.2231221227281821</v>
+        <v>0.2176085291899131</v>
       </c>
       <c r="T11">
-        <v>0.2231221227281821</v>
+        <v>0.2635176901386487</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>24</v>
       </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>19.5033720525784</v>
+        <v>21.17233266666667</v>
       </c>
       <c r="H12">
-        <v>19.5033720525784</v>
+        <v>63.516998</v>
       </c>
       <c r="I12">
-        <v>0.5282166809976835</v>
+        <v>0.5213509886618202</v>
       </c>
       <c r="J12">
-        <v>0.5282166809976835</v>
+        <v>0.5976102420258047</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N12">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O12">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P12">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q12">
-        <v>482.2115148509112</v>
+        <v>535.3712046767606</v>
       </c>
       <c r="R12">
-        <v>482.2115148509112</v>
+        <v>4818.340842090846</v>
       </c>
       <c r="S12">
-        <v>0.0596688274170154</v>
+        <v>0.05893335570370749</v>
       </c>
       <c r="T12">
-        <v>0.0596688274170154</v>
+        <v>0.07136660417205844</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>19.5033720525784</v>
+        <v>21.17233266666667</v>
       </c>
       <c r="H13">
-        <v>19.5033720525784</v>
+        <v>63.516998</v>
       </c>
       <c r="I13">
-        <v>0.5282166809976835</v>
+        <v>0.5213509886618202</v>
       </c>
       <c r="J13">
-        <v>0.5282166809976835</v>
+        <v>0.5976102420258047</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N13">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O13">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P13">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q13">
-        <v>112.7914178823644</v>
+        <v>123.373098544773</v>
       </c>
       <c r="R13">
-        <v>112.7914178823644</v>
+        <v>740.2385912686379</v>
       </c>
       <c r="S13">
-        <v>0.01395680410042484</v>
+        <v>0.01358084005507455</v>
       </c>
       <c r="T13">
-        <v>0.01395680410042484</v>
+        <v>0.01096400530125781</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>2.12283092368401</v>
+        <v>0.03605133333333333</v>
       </c>
       <c r="H14">
-        <v>2.12283092368401</v>
+        <v>0.108154</v>
       </c>
       <c r="I14">
-        <v>0.05749337610976731</v>
+        <v>0.0008877339389958338</v>
       </c>
       <c r="J14">
-        <v>0.05749337610976731</v>
+        <v>0.001017584900912019</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N14">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O14">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P14">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q14">
-        <v>62.75125995302994</v>
+        <v>1.082516973107666</v>
       </c>
       <c r="R14">
-        <v>62.75125995302994</v>
+        <v>6.495101838646</v>
       </c>
       <c r="S14">
-        <v>0.007764837597242495</v>
+        <v>0.0001191628486443775</v>
       </c>
       <c r="T14">
-        <v>0.007764837597242495</v>
+        <v>9.620186225238369E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>2.12283092368401</v>
+        <v>0.03605133333333333</v>
       </c>
       <c r="H15">
-        <v>2.12283092368401</v>
+        <v>0.108154</v>
       </c>
       <c r="I15">
-        <v>0.05749337610976731</v>
+        <v>0.0008877339389958338</v>
       </c>
       <c r="J15">
-        <v>0.05749337610976731</v>
+        <v>0.001017584900912019</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N15">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O15">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P15">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q15">
-        <v>10.26192462556131</v>
+        <v>0.1932183827966667</v>
       </c>
       <c r="R15">
-        <v>10.26192462556131</v>
+        <v>1.73896544517</v>
       </c>
       <c r="S15">
-        <v>0.001269810011978566</v>
+        <v>2.126936895817206E-05</v>
       </c>
       <c r="T15">
-        <v>0.001269810011978566</v>
+        <v>2.575659602787289E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>2.12283092368401</v>
+        <v>0.03605133333333333</v>
       </c>
       <c r="H16">
-        <v>2.12283092368401</v>
+        <v>0.108154</v>
       </c>
       <c r="I16">
-        <v>0.05749337610976731</v>
+        <v>0.0008877339389958338</v>
       </c>
       <c r="J16">
-        <v>0.05749337610976731</v>
+        <v>0.001017584900912019</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N16">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O16">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P16">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q16">
-        <v>130.5918305785883</v>
+        <v>2.301004698365111</v>
       </c>
       <c r="R16">
-        <v>130.5918305785883</v>
+        <v>20.709042285286</v>
       </c>
       <c r="S16">
-        <v>0.01615942622870606</v>
+        <v>0.0002532932798403448</v>
       </c>
       <c r="T16">
-        <v>0.01615942622870606</v>
+        <v>0.0003067309001152146</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>2.12283092368401</v>
+        <v>0.03605133333333333</v>
       </c>
       <c r="H17">
-        <v>2.12283092368401</v>
+        <v>0.108154</v>
       </c>
       <c r="I17">
-        <v>0.05749337610976731</v>
+        <v>0.0008877339389958338</v>
       </c>
       <c r="J17">
-        <v>0.05749337610976731</v>
+        <v>0.001017584900912019</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N17">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O17">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P17">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q17">
-        <v>196.262987941508</v>
+        <v>3.366064035622666</v>
       </c>
       <c r="R17">
-        <v>196.262987941508</v>
+        <v>30.29457632060399</v>
       </c>
       <c r="S17">
-        <v>0.02428557177746019</v>
+        <v>0.0003705344019250699</v>
       </c>
       <c r="T17">
-        <v>0.02428557177746019</v>
+        <v>0.0004487065377248372</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="C18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" t="s">
-        <v>22</v>
-      </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>2.12283092368401</v>
+        <v>0.03605133333333333</v>
       </c>
       <c r="H18">
-        <v>2.12283092368401</v>
+        <v>0.108154</v>
       </c>
       <c r="I18">
-        <v>0.05749337610976731</v>
+        <v>0.0008877339389958338</v>
       </c>
       <c r="J18">
-        <v>0.05749337610976731</v>
+        <v>0.001017584900912019</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N18">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O18">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P18">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q18">
-        <v>52.4859758980343</v>
+        <v>0.9116069570953333</v>
       </c>
       <c r="R18">
-        <v>52.4859758980343</v>
+        <v>8.204462613858</v>
       </c>
       <c r="S18">
-        <v>0.006494611889642892</v>
+        <v>0.0001003491719299892</v>
       </c>
       <c r="T18">
-        <v>0.006494611889642892</v>
+        <v>0.0001215199702546523</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>2.12283092368401</v>
+        <v>0.03605133333333333</v>
       </c>
       <c r="H19">
-        <v>2.12283092368401</v>
+        <v>0.108154</v>
       </c>
       <c r="I19">
-        <v>0.05749337610976731</v>
+        <v>0.0008877339389958338</v>
       </c>
       <c r="J19">
-        <v>0.05749337610976731</v>
+        <v>0.001017584900912019</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>5.78317521597262</v>
+        <v>5.8270905</v>
       </c>
       <c r="N19">
-        <v>5.78317521597262</v>
+        <v>11.654181</v>
       </c>
       <c r="O19">
-        <v>0.02642249781673602</v>
+        <v>0.0260493225301696</v>
       </c>
       <c r="P19">
-        <v>0.02642249781673602</v>
+        <v>0.01834641465328899</v>
       </c>
       <c r="Q19">
-        <v>12.27670318554963</v>
+        <v>0.210074381979</v>
       </c>
       <c r="R19">
-        <v>12.27670318554963</v>
+        <v>1.260446291874</v>
       </c>
       <c r="S19">
-        <v>0.001519118604737109</v>
+        <v>2.312486769788038E-05</v>
       </c>
       <c r="T19">
-        <v>0.001519118604737109</v>
+        <v>1.866903453705789E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,10 +1644,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -1656,49 +1656,49 @@
         <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>14.4100298635191</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H20">
-        <v>14.4100298635191</v>
+        <v>0.250031</v>
       </c>
       <c r="I20">
-        <v>0.3902719041130779</v>
+        <v>0.002052268103824799</v>
       </c>
       <c r="J20">
-        <v>0.3902719041130779</v>
+        <v>0.002352458257299156</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>29.5601779929463</v>
+        <v>30.0270995</v>
       </c>
       <c r="N20">
-        <v>29.5601779929463</v>
+        <v>60.054199</v>
       </c>
       <c r="O20">
-        <v>0.1350562120828969</v>
+        <v>0.1342326156631674</v>
       </c>
       <c r="P20">
-        <v>0.1350562120828969</v>
+        <v>0.09453939633554115</v>
       </c>
       <c r="Q20">
-        <v>425.9630476492962</v>
+        <v>2.502568571694833</v>
       </c>
       <c r="R20">
-        <v>425.9630476492962</v>
+        <v>15.015411430169</v>
       </c>
       <c r="S20">
-        <v>0.05270864505189187</v>
+        <v>0.0002754813156184917</v>
       </c>
       <c r="T20">
-        <v>0.05270864505189187</v>
+        <v>0.0002223999835496213</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,10 +1706,10 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
@@ -1718,49 +1718,49 @@
         <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>14.4100298635191</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H21">
-        <v>14.4100298635191</v>
+        <v>0.250031</v>
       </c>
       <c r="I21">
-        <v>0.3902719041130779</v>
+        <v>0.002052268103824799</v>
       </c>
       <c r="J21">
-        <v>0.3902719041130779</v>
+        <v>0.002352458257299156</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.83407534301061</v>
+        <v>5.359535</v>
       </c>
       <c r="N21">
-        <v>4.83407534301061</v>
+        <v>16.078605</v>
       </c>
       <c r="O21">
-        <v>0.02208619666992983</v>
+        <v>0.02395917067475312</v>
       </c>
       <c r="P21">
-        <v>0.02208619666992983</v>
+        <v>0.02531149588087277</v>
       </c>
       <c r="Q21">
-        <v>69.65917005528422</v>
+        <v>0.4466832985283333</v>
       </c>
       <c r="R21">
-        <v>69.65917005528422</v>
+        <v>4.020149686755</v>
       </c>
       <c r="S21">
-        <v>0.008619622028989436</v>
+        <v>4.917064176989033E-05</v>
       </c>
       <c r="T21">
-        <v>0.008619622028989436</v>
+        <v>5.954423748955272E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>14.4100298635191</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H22">
-        <v>14.4100298635191</v>
+        <v>0.250031</v>
       </c>
       <c r="I22">
-        <v>0.3902719041130779</v>
+        <v>0.002052268103824799</v>
       </c>
       <c r="J22">
-        <v>0.3902719041130779</v>
+        <v>0.002352458257299156</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>61.5177728577442</v>
+        <v>63.82578633333333</v>
       </c>
       <c r="N22">
-        <v>61.5177728577442</v>
+        <v>191.477359</v>
       </c>
       <c r="O22">
-        <v>0.2810658778822488</v>
+        <v>0.2853256687773582</v>
       </c>
       <c r="P22">
-        <v>0.2810658778822488</v>
+        <v>0.3014302785352894</v>
       </c>
       <c r="Q22">
-        <v>886.4729440172786</v>
+        <v>5.319475060903222</v>
       </c>
       <c r="R22">
-        <v>886.4729440172786</v>
+        <v>47.875275548129</v>
       </c>
       <c r="S22">
-        <v>0.1096921153423191</v>
+        <v>0.0005855647692342517</v>
       </c>
       <c r="T22">
-        <v>0.1096921153423191</v>
+        <v>0.0007091021477403261</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>14.4100298635191</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H23">
-        <v>14.4100298635191</v>
+        <v>0.250031</v>
       </c>
       <c r="I23">
-        <v>0.3902719041130779</v>
+        <v>0.002052268103824799</v>
       </c>
       <c r="J23">
-        <v>0.3902719041130779</v>
+        <v>0.002352458257299156</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>92.4534242232107</v>
+        <v>93.36864199999998</v>
       </c>
       <c r="N23">
-        <v>92.4534242232107</v>
+        <v>280.105926</v>
       </c>
       <c r="O23">
-        <v>0.4224064304572021</v>
+        <v>0.4173935293543045</v>
       </c>
       <c r="P23">
-        <v>0.4224064304572021</v>
+        <v>0.4409524328856299</v>
       </c>
       <c r="Q23">
-        <v>1332.256604041066</v>
+        <v>7.781684975967331</v>
       </c>
       <c r="R23">
-        <v>1332.256604041066</v>
+        <v>70.03516478370599</v>
       </c>
       <c r="S23">
-        <v>0.1648533619241407</v>
+        <v>0.0008566034270366991</v>
       </c>
       <c r="T23">
-        <v>0.1648533619241407</v>
+        <v>0.001037322191817952</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>22</v>
-      </c>
       <c r="E24">
         <v>1</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>14.4100298635191</v>
+        <v>0.08334366666666666</v>
       </c>
       <c r="H24">
-        <v>14.4100298635191</v>
+        <v>0.250031</v>
       </c>
       <c r="I24">
-        <v>0.3902719041130779</v>
+        <v>0.002052268103824799</v>
       </c>
       <c r="J24">
-        <v>0.3902719041130779</v>
+        <v>0.002352458257299156</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>24.7245201266189</v>
+        <v>25.286359</v>
       </c>
       <c r="N24">
-        <v>24.7245201266189</v>
+        <v>75.859077</v>
       </c>
       <c r="O24">
-        <v>0.1129627850909863</v>
+        <v>0.1130396930002472</v>
       </c>
       <c r="P24">
-        <v>0.1129627850909863</v>
+        <v>0.1194199817093778</v>
       </c>
       <c r="Q24">
-        <v>356.2810733857573</v>
+        <v>2.107457875709667</v>
       </c>
       <c r="R24">
-        <v>356.2810733857573</v>
+        <v>18.967120881387</v>
       </c>
       <c r="S24">
-        <v>0.04408620123137564</v>
+        <v>0.0002319877564105547</v>
       </c>
       <c r="T24">
-        <v>0.04408620123137564</v>
+        <v>0.00028093052205874</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,805 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G25">
+        <v>0.08334366666666666</v>
+      </c>
+      <c r="H25">
+        <v>0.250031</v>
+      </c>
+      <c r="I25">
+        <v>0.002052268103824799</v>
+      </c>
+      <c r="J25">
+        <v>0.002352458257299156</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>5.8270905</v>
+      </c>
+      <c r="N25">
+        <v>11.654181</v>
+      </c>
+      <c r="O25">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P25">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q25">
+        <v>0.4856510882685</v>
+      </c>
+      <c r="R25">
+        <v>2.913906529611</v>
+      </c>
+      <c r="S25">
+        <v>5.346019375491178E-05</v>
+      </c>
+      <c r="T25">
+        <v>4.315917464296393E-05</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>3.772229333333333</v>
+      </c>
+      <c r="H26">
+        <v>11.316688</v>
+      </c>
+      <c r="I26">
+        <v>0.09288799318219285</v>
+      </c>
+      <c r="J26">
+        <v>0.1064749416307509</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.0270995</v>
+      </c>
+      <c r="N26">
+        <v>60.054199</v>
+      </c>
+      <c r="O26">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P26">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q26">
+        <v>113.2691055288187</v>
+      </c>
+      <c r="R26">
+        <v>679.6146331729119</v>
+      </c>
+      <c r="S26">
+        <v>0.01246859828854821</v>
+      </c>
+      <c r="T26">
+        <v>0.01006607670663317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>3.772229333333333</v>
+      </c>
+      <c r="H27">
+        <v>11.316688</v>
+      </c>
+      <c r="I27">
+        <v>0.09288799318219285</v>
+      </c>
+      <c r="J27">
+        <v>0.1064749416307509</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>5.359535</v>
+      </c>
+      <c r="N27">
+        <v>16.078605</v>
+      </c>
+      <c r="O27">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P27">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q27">
+        <v>20.21739514002667</v>
+      </c>
+      <c r="R27">
+        <v>181.95655626024</v>
+      </c>
+      <c r="S27">
+        <v>0.002225519282287463</v>
+      </c>
+      <c r="T27">
+        <v>0.002695040046502919</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>3.772229333333333</v>
+      </c>
+      <c r="H28">
+        <v>11.316688</v>
+      </c>
+      <c r="I28">
+        <v>0.09288799318219285</v>
+      </c>
+      <c r="J28">
+        <v>0.1064749416307509</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N28">
+        <v>191.477359</v>
+      </c>
+      <c r="O28">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P28">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q28">
+        <v>240.7655034296658</v>
+      </c>
+      <c r="R28">
+        <v>2166.889530866992</v>
+      </c>
+      <c r="S28">
+        <v>0.02650332877609586</v>
+      </c>
+      <c r="T28">
+        <v>0.03209477131278592</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>3.772229333333333</v>
+      </c>
+      <c r="H29">
+        <v>11.316688</v>
+      </c>
+      <c r="I29">
+        <v>0.09288799318219285</v>
+      </c>
+      <c r="J29">
+        <v>0.1064749416307509</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N29">
+        <v>280.105926</v>
+      </c>
+      <c r="O29">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P29">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q29">
+        <v>352.2079301658986</v>
+      </c>
+      <c r="R29">
+        <v>3169.871371493087</v>
+      </c>
+      <c r="S29">
+        <v>0.03877084730895404</v>
+      </c>
+      <c r="T29">
+        <v>0.04695038455343503</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>3.772229333333333</v>
+      </c>
+      <c r="H30">
+        <v>11.316688</v>
+      </c>
+      <c r="I30">
+        <v>0.09288799318219285</v>
+      </c>
+      <c r="J30">
+        <v>0.1064749416307509</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>25.286359</v>
+      </c>
+      <c r="N30">
+        <v>75.859077</v>
+      </c>
+      <c r="O30">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P30">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q30">
+        <v>95.38594515299734</v>
+      </c>
+      <c r="R30">
+        <v>858.4735063769759</v>
+      </c>
+      <c r="S30">
+        <v>0.01050003023272413</v>
+      </c>
+      <c r="T30">
+        <v>0.01271523558205134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
         <v>25</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>3.772229333333333</v>
+      </c>
+      <c r="H31">
+        <v>11.316688</v>
+      </c>
+      <c r="I31">
+        <v>0.09288799318219285</v>
+      </c>
+      <c r="J31">
+        <v>0.1064749416307509</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.8270905</v>
+      </c>
+      <c r="N31">
+        <v>11.654181</v>
+      </c>
+      <c r="O31">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P31">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q31">
+        <v>21.981121712088</v>
+      </c>
+      <c r="R31">
+        <v>131.886730272528</v>
+      </c>
+      <c r="S31">
+        <v>0.002419669293583136</v>
+      </c>
+      <c r="T31">
+        <v>0.001953433429342498</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>14.6115785</v>
+      </c>
+      <c r="H32">
+        <v>29.223157</v>
+      </c>
+      <c r="I32">
+        <v>0.3597979030850039</v>
+      </c>
+      <c r="J32">
+        <v>0.2749509340401776</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>30.0270995</v>
+      </c>
+      <c r="N32">
+        <v>60.054199</v>
+      </c>
+      <c r="O32">
+        <v>0.1342326156631674</v>
+      </c>
+      <c r="P32">
+        <v>0.09453939633554115</v>
+      </c>
+      <c r="Q32">
+        <v>438.7433214715608</v>
+      </c>
+      <c r="R32">
+        <v>1754.973285886243</v>
+      </c>
+      <c r="S32">
+        <v>0.0482966136412229</v>
+      </c>
+      <c r="T32">
+        <v>0.02599369532605158</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>14.6115785</v>
+      </c>
+      <c r="H33">
+        <v>29.223157</v>
+      </c>
+      <c r="I33">
+        <v>0.3597979030850039</v>
+      </c>
+      <c r="J33">
+        <v>0.2749509340401776</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>5.359535</v>
+      </c>
+      <c r="N33">
+        <v>16.078605</v>
+      </c>
+      <c r="O33">
+        <v>0.02395917067475312</v>
+      </c>
+      <c r="P33">
+        <v>0.02531149588087277</v>
+      </c>
+      <c r="Q33">
+        <v>78.3112663759975</v>
+      </c>
+      <c r="R33">
+        <v>469.867598255985</v>
+      </c>
+      <c r="S33">
+        <v>0.008620459368431893</v>
+      </c>
+      <c r="T33">
+        <v>0.006959419434400075</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>14.6115785</v>
+      </c>
+      <c r="H34">
+        <v>29.223157</v>
+      </c>
+      <c r="I34">
+        <v>0.3597979030850039</v>
+      </c>
+      <c r="J34">
+        <v>0.2749509340401776</v>
+      </c>
+      <c r="K34">
+        <v>3</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>63.82578633333333</v>
+      </c>
+      <c r="N34">
+        <v>191.477359</v>
+      </c>
+      <c r="O34">
+        <v>0.2853256687773582</v>
+      </c>
+      <c r="P34">
+        <v>0.3014302785352894</v>
+      </c>
+      <c r="Q34">
+        <v>932.5954873337272</v>
+      </c>
+      <c r="R34">
+        <v>5595.572924002363</v>
+      </c>
+      <c r="S34">
+        <v>0.1026595773224199</v>
+      </c>
+      <c r="T34">
+        <v>0.08287853663126871</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>14.4100298635191</v>
-      </c>
-      <c r="H25">
-        <v>14.4100298635191</v>
-      </c>
-      <c r="I25">
-        <v>0.3902719041130779</v>
-      </c>
-      <c r="J25">
-        <v>0.3902719041130779</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="N25">
-        <v>5.78317521597262</v>
-      </c>
-      <c r="O25">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="P25">
-        <v>0.02642249781673602</v>
-      </c>
-      <c r="Q25">
-        <v>83.33572756812897</v>
-      </c>
-      <c r="R25">
-        <v>83.33572756812897</v>
-      </c>
-      <c r="S25">
-        <v>0.01031195853436121</v>
-      </c>
-      <c r="T25">
-        <v>0.01031195853436121</v>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>14.6115785</v>
+      </c>
+      <c r="H35">
+        <v>29.223157</v>
+      </c>
+      <c r="I35">
+        <v>0.3597979030850039</v>
+      </c>
+      <c r="J35">
+        <v>0.2749509340401776</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>93.36864199999998</v>
+      </c>
+      <c r="N35">
+        <v>280.105926</v>
+      </c>
+      <c r="O35">
+        <v>0.4173935293543045</v>
+      </c>
+      <c r="P35">
+        <v>0.4409524328856299</v>
+      </c>
+      <c r="Q35">
+        <v>1364.263242021397</v>
+      </c>
+      <c r="R35">
+        <v>8185.579452128381</v>
+      </c>
+      <c r="S35">
+        <v>0.1501773166229278</v>
+      </c>
+      <c r="T35">
+        <v>0.1212402832891926</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>14.6115785</v>
+      </c>
+      <c r="H36">
+        <v>29.223157</v>
+      </c>
+      <c r="I36">
+        <v>0.3597979030850039</v>
+      </c>
+      <c r="J36">
+        <v>0.2749509340401776</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>25.286359</v>
+      </c>
+      <c r="N36">
+        <v>75.859077</v>
+      </c>
+      <c r="O36">
+        <v>0.1130396930002472</v>
+      </c>
+      <c r="P36">
+        <v>0.1194199817093778</v>
+      </c>
+      <c r="Q36">
+        <v>369.4736195076815</v>
+      </c>
+      <c r="R36">
+        <v>2216.841717046089</v>
+      </c>
+      <c r="S36">
+        <v>0.04067144450686153</v>
+      </c>
+      <c r="T36">
+        <v>0.03283463551405435</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>14.6115785</v>
+      </c>
+      <c r="H37">
+        <v>29.223157</v>
+      </c>
+      <c r="I37">
+        <v>0.3597979030850039</v>
+      </c>
+      <c r="J37">
+        <v>0.2749509340401776</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.8270905</v>
+      </c>
+      <c r="N37">
+        <v>11.654181</v>
+      </c>
+      <c r="O37">
+        <v>0.0260493225301696</v>
+      </c>
+      <c r="P37">
+        <v>0.01834641465328899</v>
+      </c>
+      <c r="Q37">
+        <v>85.14299026735425</v>
+      </c>
+      <c r="R37">
+        <v>340.571961069417</v>
+      </c>
+      <c r="S37">
+        <v>0.009372491623139969</v>
+      </c>
+      <c r="T37">
+        <v>0.00504436384521021</v>
       </c>
     </row>
   </sheetData>
